--- a/Tables/Sources/gameplay/Facility/FacilityWarship.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarship.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>模型资源</t>
   </si>
   <si>
-    <t>解锁等级条件</t>
-  </si>
-  <si>
-    <t>强化消耗</t>
+    <t>解锁等级条件（主船等级）</t>
+  </si>
+  <si>
+    <t>强化消耗（id|数量）</t>
   </si>
   <si>
     <t>属性数值</t>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -101,12 +101,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -117,6 +132,27 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,15 +166,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,76 +198,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,16 +220,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,25 +259,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,139 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,6 +468,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -479,15 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +509,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,9 +542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,145 +571,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarship.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarship.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>战船ID</t>
   </si>
@@ -64,7 +64,28 @@
     <t>AttributeValues</t>
   </si>
   <si>
-    <t>1001|2;</t>
+    <t>Warship1</t>
+  </si>
+  <si>
+    <t>1001|20;1002|10</t>
+  </si>
+  <si>
+    <t>Warship2</t>
+  </si>
+  <si>
+    <t>Warship3</t>
+  </si>
+  <si>
+    <t>Warship4</t>
+  </si>
+  <si>
+    <t>Warship5</t>
+  </si>
+  <si>
+    <t>Warship6</t>
+  </si>
+  <si>
+    <t>Warship7</t>
   </si>
 </sst>
 </file>
@@ -72,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -100,6 +121,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -107,8 +143,101 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,61 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,174 +280,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,12 +461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +493,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,26 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,34 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +604,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,6 +747,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,12 +1097,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1175,80 +1199,119 @@
       <c r="A5" s="2">
         <v>100101</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>100102</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>100103</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>100104</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>100105</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>100106</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>100107</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>100108</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>100109</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>100110</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>100111</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>100112</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>100113</v>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityWarship.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarship.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>战船ID</t>
   </si>
@@ -34,12 +34,27 @@
     <t>强化消耗（id|数量）</t>
   </si>
   <si>
-    <t>属性数值</t>
+    <t>属性数值(参数|百分比%，参数：HP,ATK,Armor-护甲值)</t>
+  </si>
+  <si>
+    <t>属性参数1</t>
+  </si>
+  <si>
+    <t>参数数值</t>
+  </si>
+  <si>
+    <t>属性参数2</t>
+  </si>
+  <si>
+    <t>属性参数3</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -68,6 +83,15 @@
   </si>
   <si>
     <t>1001|20;1002|10</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Armor</t>
   </si>
   <si>
     <t>Warship2</t>
@@ -93,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -121,8 +145,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -130,14 +205,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,28 +220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,56 +242,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,15 +274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +304,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,13 +388,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,157 +454,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,28 +516,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +557,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,9 +587,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,137 +628,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,6 +771,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,25 +1124,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="14.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.8148148148148" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.3796296296296" style="4" customWidth="1"/>
     <col min="5" max="5" width="32.1111111111111" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.8888888888889" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.2222222222222" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,187 +1158,377 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>100101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>G5&amp;"|"&amp;H5&amp;";"&amp;I5&amp;"|"&amp;J5&amp;K5&amp;"|"&amp;L5</f>
+        <v>ATK|0.1;HP|0.1Armor|0.1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>100102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" ref="F6:F11" si="0">G6&amp;"|"&amp;H6&amp;";"&amp;I6&amp;"|"&amp;J6&amp;K6&amp;"|"&amp;L6</f>
+        <v>ATK|1.1;HP|1.1Armor|1.1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.1</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>100103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ATK|2.1;HP|2.1Armor|2.1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>100104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ATK|3.1;HP|3.1Armor|3.1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>100105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ATK|4.1;HP|4.1Armor|4.1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>100106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
+      <c r="E10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ATK|5.1;HP|5.1Armor|5.1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>100107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ATK|6.1;HP|6.1Armor|6.1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>
